--- a/data files/Purchase Order/VANDANA.xlsx
+++ b/data files/Purchase Order/VANDANA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CFB4E1-D2EB-4E87-8F48-499C96354040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>To,</t>
   </si>
@@ -124,13 +125,25 @@
   </si>
   <si>
     <t>Hot Water Bottle-Cornation Hands Free</t>
+  </si>
+  <si>
+    <t>SI.</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Qty.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +233,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="22">
@@ -476,7 +500,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -493,7 +517,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,44 +534,33 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -631,6 +644,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -642,14 +664,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -687,7 +712,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -759,7 +784,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -932,363 +957,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="61"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="56"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="61"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="61"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="61"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="56"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="57"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="55"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="56"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="63"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="64"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="65"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="66">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="61">
         <v>1</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="67"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="66">
+      <c r="E9" s="62"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="61">
         <v>2</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="67"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="67"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="66">
+      <c r="E10" s="62"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="62"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="61">
         <v>3</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="67"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="67"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
+      <c r="E12" s="62"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="62"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="61">
         <v>4</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="67"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="66">
+      <c r="E14" s="62"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="61">
         <v>5</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="48">
         <v>200</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="67"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="66">
+      <c r="E15" s="62"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="61">
         <v>6</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="48">
         <v>800</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="67"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="66">
+      <c r="E16" s="62"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="61">
         <v>7</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="67"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="66">
+      <c r="E17" s="62"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="61">
         <v>8</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="67"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="67"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="66">
+      <c r="E18" s="62"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="62"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="61">
         <v>9</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="67"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="66">
+      <c r="E20" s="62"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="61">
         <v>10</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="48">
         <v>1</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="67"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="65"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="E21" s="62"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="55"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="60"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="69"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="69"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="64"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="65"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="64"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="69"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="64"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="72"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="E26" s="67"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="72"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
       <c r="D30" s="8"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="10"/>
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="8"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D39" s="14"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C40" s="15"/>
       <c r="D40" s="14"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C41" s="15"/>
       <c r="D41" s="14"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
@@ -1300,334 +1333,332 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="B7" s="2"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="46">
         <v>1</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="37">
         <v>300</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="46">
         <v>2</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="37">
         <v>150</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="46">
         <v>3</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="46">
         <v>4</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="37">
         <v>20</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="46">
         <v>5</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="37">
         <v>300</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="46">
         <v>6</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="37">
         <v>70</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="46">
         <v>7</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="37">
         <v>120</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="8"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="10"/>
       <c r="C30" s="6"/>
       <c r="D30" s="4"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D37" s="8"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="14"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C39" s="15"/>
       <c r="D39" s="14"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C40" s="15"/>
       <c r="D40" s="14"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
@@ -1638,12 +1669,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data files/Purchase Order/VANDANA.xlsx
+++ b/data files/Purchase Order/VANDANA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CFB4E1-D2EB-4E87-8F48-499C96354040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB0C844-FEB6-4D7C-8682-B173988DB9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -617,9 +617,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,17 +957,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -979,7 +976,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>20</v>
       </c>
@@ -987,7 +984,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="56"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
@@ -996,21 +993,21 @@
       <c r="D3" s="2"/>
       <c r="E3" s="56"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="56"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="56"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1016,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="58"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
         <v>2</v>
       </c>
@@ -1028,25 +1025,25 @@
       <c r="D7" s="2"/>
       <c r="E7" s="59"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="61">
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="60">
         <v>1</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -1056,12 +1053,12 @@
         <v>19</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="62"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="61">
+        <v>33</v>
+      </c>
+      <c r="E9" s="61"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="60">
         <v>2</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -1071,19 +1068,19 @@
         <v>19</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="62"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
+        <v>33</v>
+      </c>
+      <c r="E10" s="61"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
       <c r="B11" s="47"/>
       <c r="C11" s="48"/>
       <c r="D11" s="49"/>
-      <c r="E11" s="62"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="61">
+      <c r="E11" s="61"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="60">
         <v>3</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -1095,17 +1092,17 @@
       <c r="D12" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="62"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
+      <c r="E12" s="61"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
       <c r="B13" s="47"/>
       <c r="C13" s="48"/>
       <c r="D13" s="49"/>
-      <c r="E13" s="62"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="61">
+      <c r="E13" s="61"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="60">
         <v>4</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -1117,10 +1114,10 @@
       <c r="D14" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="62"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="61">
+      <c r="E14" s="61"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="60">
         <v>5</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -1132,10 +1129,10 @@
       <c r="D15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="62"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="61">
+      <c r="E15" s="61"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="60">
         <v>6</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -1147,10 +1144,10 @@
       <c r="D16" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="62"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="61">
+      <c r="E16" s="61"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="60">
         <v>7</v>
       </c>
       <c r="B17" s="47" t="s">
@@ -1162,10 +1159,10 @@
       <c r="D17" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="62"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="61">
+      <c r="E17" s="61"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="60">
         <v>8</v>
       </c>
       <c r="B18" s="47" t="s">
@@ -1177,17 +1174,17 @@
       <c r="D18" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="62"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="E18" s="61"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
       <c r="B19" s="47"/>
       <c r="C19" s="48"/>
       <c r="D19" s="49"/>
-      <c r="E19" s="62"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="61">
+      <c r="E19" s="61"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="60">
         <v>9</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -1199,10 +1196,10 @@
       <c r="D20" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="62"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="61">
+      <c r="E20" s="61"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="60">
         <v>10</v>
       </c>
       <c r="B21" s="47" t="s">
@@ -1214,114 +1211,114 @@
       <c r="D21" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="62"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="60"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+      <c r="E21" s="61"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="61"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="24"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="64"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="65"/>
+      <c r="E23" s="63"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
       <c r="B24" s="5"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="64"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="66" t="s">
+      <c r="E24" s="63"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="29"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="64"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
+      <c r="E25" s="63"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
-      <c r="E26" s="67"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
+      <c r="E26" s="66"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="71"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
       <c r="D30" s="8"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="10"/>
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="8"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D39" s="14"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
       <c r="D40" s="14"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" s="15"/>
       <c r="D41" s="14"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
@@ -1340,13 +1337,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1354,7 @@
       </c>
       <c r="E1" s="45"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1362,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
@@ -1374,14 +1371,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1387,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
@@ -1399,14 +1396,14 @@
       <c r="D6" s="2"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="2"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="46">
         <v>1</v>
       </c>
@@ -1421,7 +1418,7 @@
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="46">
         <v>2</v>
       </c>
@@ -1436,7 +1433,7 @@
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <v>3</v>
       </c>
@@ -1451,14 +1448,14 @@
       </c>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="36"/>
       <c r="C11" s="39"/>
       <c r="D11" s="38"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>4</v>
       </c>
@@ -1473,7 +1470,7 @@
       </c>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <v>5</v>
       </c>
@@ -1488,14 +1485,14 @@
       </c>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>6</v>
       </c>
@@ -1510,7 +1507,7 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>7</v>
       </c>
@@ -1525,42 +1522,42 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="36"/>
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
       <c r="B18" s="36"/>
       <c r="C18" s="37"/>
       <c r="D18" s="38"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="46"/>
       <c r="B19" s="36"/>
       <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
       <c r="B20" s="36"/>
       <c r="C20" s="40"/>
       <c r="D20" s="36"/>
       <c r="E20" s="21"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>4</v>
       </c>
@@ -1569,7 +1566,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>5</v>
       </c>
@@ -1578,7 +1575,7 @@
       <c r="D23" s="27"/>
       <c r="E23" s="25"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1584,7 @@
       <c r="D24" s="27"/>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>7</v>
       </c>
@@ -1595,70 +1592,70 @@
       <c r="C25" s="6"/>
       <c r="E25" s="30"/>
     </row>
-    <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="8"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="10"/>
       <c r="C30" s="6"/>
       <c r="D30" s="4"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D37" s="8"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="14"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="15"/>
       <c r="D39" s="14"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
       <c r="D40" s="14"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
@@ -1674,7 +1671,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
